--- a/ai_powered_excel/1-ai-powered-data-manipulation/ai-powered-data-manipulation.xlsx
+++ b/ai_powered_excel/1-ai-powered-data-manipulation/ai-powered-data-manipulation.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\ai_powered_excel\1-ai-powered-data-manipulation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA1342-DF20-40D7-A361-FDF888BFED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="flash-fill" sheetId="2" r:id="rId1"/>
+    <sheet name="column-from-example" sheetId="3" r:id="rId2"/>
+    <sheet name="formula-by-example" sheetId="1" r:id="rId3"/>
+    <sheet name="fuzzy-matching" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +27,266 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+  <si>
+    <t>Lucy Davis</t>
+  </si>
+  <si>
+    <t>Tom Anderson</t>
+  </si>
+  <si>
+    <t>Sarah Taylor</t>
+  </si>
+  <si>
+    <t>Mike Johnson</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>3M Company</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>McDonald's Corporation</t>
+  </si>
+  <si>
+    <t>Consumer Staples</t>
+  </si>
+  <si>
+    <t>The Coca-Cola Company</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Chevron Corporation</t>
+  </si>
+  <si>
+    <t>Cisco Systems Inc.</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc.</t>
+  </si>
+  <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
+    <t>The Home Depot Inc.</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co.</t>
+  </si>
+  <si>
+    <t>Visa Inc.</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Co.</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc.</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>Apple Inc.</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Head to Excel online:</t>
+  </si>
+  <si>
+    <t>https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/:x:/r/personal/george_stringfestanalytics_com/_layouts/15/Doc.aspx?sourcedoc=%7BD693ACA1-889D-453D-A930-80607EF4EC4D%7D&amp;file=formula-by-example-demo.xlsx&amp;wdOrigin=OFFICECOM-WEB.MAIN.SEARCH&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>J Smithers</t>
+  </si>
+  <si>
+    <t>Jay Smithers</t>
+  </si>
+  <si>
+    <t>Johnson, Jack</t>
+  </si>
+  <si>
+    <t>(555) 456-7890</t>
+  </si>
+  <si>
+    <t>johnson.j@email.com</t>
+  </si>
+  <si>
+    <t>J. Smithe</t>
+  </si>
+  <si>
+    <t>(555) 777-1234</t>
+  </si>
+  <si>
+    <t>j.smithers@email.com</t>
+  </si>
+  <si>
+    <t>Janet Smith</t>
+  </si>
+  <si>
+    <t>(555) 888-9999</t>
+  </si>
+  <si>
+    <t>janet.smithe@email.com</t>
+  </si>
+  <si>
+    <t>Janet Smithe</t>
+  </si>
+  <si>
+    <t>Jon Dowe</t>
+  </si>
+  <si>
+    <t>(555) 333-4444</t>
+  </si>
+  <si>
+    <t>j.dowe@email.com</t>
+  </si>
+  <si>
+    <t>J. Dowe</t>
+  </si>
+  <si>
+    <t>Johnny Doe</t>
+  </si>
+  <si>
+    <t>(555) 999-0000</t>
+  </si>
+  <si>
+    <t>johnny.doe@email.com</t>
+  </si>
+  <si>
+    <t>Jack Johnson</t>
+  </si>
+  <si>
+    <t>(555) 777-8888</t>
+  </si>
+  <si>
+    <t>jack.johnson@email.com</t>
+  </si>
+  <si>
+    <t>J Smith</t>
+  </si>
+  <si>
+    <t>(555) 444-5555</t>
+  </si>
+  <si>
+    <t>j_smith@email.com</t>
+  </si>
+  <si>
+    <t>J. Smith</t>
+  </si>
+  <si>
+    <t>Jon Doe</t>
+  </si>
+  <si>
+    <t>(555) 111-2222</t>
+  </si>
+  <si>
+    <t>jon.doe123@email.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>(555) 987-6543</t>
+  </si>
+  <si>
+    <t>jane.smith@email.com</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>(555) 123-4567</t>
+  </si>
+  <si>
+    <t>john.doe@email.com</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,16 +309,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7A0111FA-BC54-486C-9AEE-5BB2EA229844}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +346,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F456E572-2748-4A86-8F2D-E4BAF32E5F95}" name="Table3" displayName="Table3" ref="A1:A7" totalsRowShown="0">
+  <autoFilter ref="A1:A7" xr:uid="{882DB93E-65C6-471F-BBF9-D2B8751BA9F3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{453CB5DA-03A3-4F0D-A30C-C74015CA8DE1}" name="Full name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52C95541-E634-4515-A412-CBDE7A604432}" name="companies" displayName="companies" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{1B1835C6-B06F-450A-B844-39BF926A52F3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4219113A-1ABE-4085-8199-3E35FA847BB9}" name="Company Name"/>
+    <tableColumn id="2" xr3:uid="{D5C06EFE-8F18-4509-8A2F-121211B2E918}" name="Industry"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1BF2A88E-61AF-4C56-BEFB-DFD5B0DD943B}" name="customers" displayName="customers" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{A873B01F-E0D2-4A7C-A21B-CB728FC12D1F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CC667D67-4610-42B4-9CA2-EF5BCF0F5F8B}" name="Customer ID"/>
+    <tableColumn id="2" xr3:uid="{C873F0EA-7E31-4F26-96F1-48C39A03697D}" name="Customer Name"/>
+    <tableColumn id="3" xr3:uid="{7DF0BF77-F828-4C00-93DB-60CB1751FF84}" name="Email"/>
+    <tableColumn id="4" xr3:uid="{220D5F24-C4C6-4FC4-AFCA-6A50084671A7}" name="Phone"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5A897AA-4817-4873-80F8-3F32C31CB58C}" name="transactions" displayName="transactions" ref="F1:I13" totalsRowShown="0">
+  <autoFilter ref="F1:I13" xr:uid="{FFFDA8DA-09AF-4CB2-99AB-C455123D3E12}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{71BA94E3-74C5-4C1D-83E2-639A8319D01E}" name="Transaction ID"/>
+    <tableColumn id="2" xr3:uid="{F2AA6306-36B0-4249-A9E1-7A6DBFC86426}" name="Transaction Date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A6791A36-2F52-4A71-8104-C703DA63AD7D}" name="Customer Name"/>
+    <tableColumn id="4" xr3:uid="{784F5F6B-75CB-4E17-BBCC-3D87D23B868B}" name="Amount" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +657,603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96203622-3502-4536-802A-D31255DE19B1}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="33.4" x14ac:dyDescent="1"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="1">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB58157D-1D93-4D03-8D15-386D112FA440}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="33.4" x14ac:dyDescent="1"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="1">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="1">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="1">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="1">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="1">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="1">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="1">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="1">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="1">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="1">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="1">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="1">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="1">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="105.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/:x:/r/personal/george_stringfestanalytics_com/_layouts/15/Doc.aspx?sourcedoc=%7BD693ACA1-889D-453D-A930-80607EF4EC4D%7D&amp;file=formula-by-example-demo.xlsx&amp;wdOrigin=OFFICECOM-WEB.MAIN.SEARCH&amp;action=default&amp;mobileredirect=true" xr:uid="{8CA85867-1B32-407B-B33B-12A59437176F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554A143B-98C1-4EDA-BC21-E4FC6D35E421}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="33.4" x14ac:dyDescent="1"/>
+  <cols>
+    <col min="1" max="1" width="28.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.06640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.06640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45108</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45109</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45110</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="3">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45111</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45113</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3">
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45114</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45115</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1009</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45116</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45117</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="1">
+      <c r="F12" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45118</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3">
+        <v>70.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="1">
+      <c r="F13" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45119</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3">
+        <v>55.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>